--- a/data/trans_dic/P54_A_1_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P54_A_1_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra preocupada por contagiarse de coronavirus o ya le ha ocurrido</t>
+          <t>Población que se encuentra preocupada por contagiarse de coronavirus o ya le ha ocurrido (tasa de respuesta: 97,67%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>43,04%</t>
+          <t>48,62%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>88,32%</t>
+          <t>89,86%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>91,61%</t>
+          <t>93,81%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>48,7%</t>
+          <t>49,12%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>91,26%</t>
+          <t>90,94%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>97,3%</t>
+          <t>98,09%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>46,06%</t>
+          <t>48,89%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>89,9%</t>
+          <t>90,44%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>94,64%</t>
+          <t>96,1%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>36,53; 48,98</t>
+          <t>39,84; 57,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>84,45; 92,23</t>
+          <t>84,35; 94,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>84,39; 94,72</t>
+          <t>88,5; 97,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>42,99; 54,63</t>
+          <t>41,74; 55,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>87,33; 94,17</t>
+          <t>85,53; 94,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,92; 98,68</t>
+          <t>95,59; 99,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>41,82; 50,3</t>
+          <t>43,0; 54,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>87,04; 92,39</t>
+          <t>86,6; 93,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>91,3; 96,31</t>
+          <t>93,09; 97,81</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>40,46%</t>
+          <t>41,25%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>90,58%</t>
+          <t>89,31%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>92,34%</t>
+          <t>90,25%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>40,14%</t>
+          <t>41,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>95,24%</t>
+          <t>96,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>94,37%</t>
+          <t>96,17%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>40,29%</t>
+          <t>41,24%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>93,04%</t>
+          <t>93,43%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>93,38%</t>
+          <t>93,3%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>33,11; 47,31</t>
+          <t>33,68; 50,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>83,9; 95,08</t>
+          <t>78,77; 95,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>84,6; 95,79</t>
+          <t>77,4; 95,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>34,26; 46,74</t>
+          <t>32,38; 49,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>91,95; 97,4</t>
+          <t>92,83; 98,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>86,46; 97,4</t>
+          <t>91,09; 98,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>35,45; 45,33</t>
+          <t>35,69; 47,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>88,88; 95,46</t>
+          <t>87,43; 96,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>89,08; 95,88</t>
+          <t>86,49; 96,1</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>33,95%</t>
+          <t>44,82%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>85,06%</t>
+          <t>73,49%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>97,39%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>50,87%</t>
+          <t>49,21%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,99%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>91,69%</t>
+          <t>94,32%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>42,0%</t>
+          <t>47,18%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>89,78%</t>
+          <t>86,49%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>94,64%</t>
+          <t>97,13%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,09; 46,69</t>
+          <t>25,58; 66,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>54,46; 98,34</t>
+          <t>29,73; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>91,45; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>38,6; 64,46</t>
+          <t>32,02; 66,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>86,31; 98,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>82,63; 96,98</t>
+          <t>81,76; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>32,4; 51,22</t>
+          <t>34,3; 60,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>70,01; 97,35</t>
+          <t>58,31; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>89,42; 97,72</t>
+          <t>90,44; 100,0</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>40,96%</t>
+          <t>45,17%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>88,84%</t>
+          <t>87,76%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>92,6%</t>
+          <t>92,98%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>45,52%</t>
+          <t>46,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>93,21%</t>
+          <t>94,27%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>96,95%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>43,34%</t>
+          <t>45,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>91,14%</t>
+          <t>91,24%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>94,13%</t>
+          <t>95,06%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>36,64; 45,3</t>
+          <t>38,88; 51,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>84,34; 91,94</t>
+          <t>79,04; 92,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>88,62; 95,0</t>
+          <t>88,11; 95,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>41,43; 49,96</t>
+          <t>40,9; 51,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>90,77; 95,1</t>
+          <t>91,28; 96,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,64; 97,13</t>
+          <t>94,59; 98,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>40,4; 46,22</t>
+          <t>41,44; 49,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>88,67; 92,98</t>
+          <t>86,78; 93,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>92,17; 95,6</t>
+          <t>92,52; 96,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1072,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra preocupada por contagiarse de coronavirus o ya le ha ocurrido (tasa de respuesta: 97,67%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>325.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>344.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>165379</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>386457</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>341669</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>194361</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>459169</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>410645</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>359740</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>845627</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>752314</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>135516; 195546</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>362796; 406024</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>322347; 353765</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>165181; 220742</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>431824; 478487</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>400171; 416883</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>316436; 400928</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>809657; 870326</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>728788; 765720</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>273.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>273.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>121410</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>318260</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>285014</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>126774</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>407685</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>322005</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>248185</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>725946</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>607020</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>99119; 150059</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>280698; 338684</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>244434; 300326</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>99573; 151386</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>390491; 416061</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>304987; 331035</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>214807; 284797</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>679337; 747972</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>562697; 625240</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>28297</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>74792</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>79603</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>36038</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>97952</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>76922</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>64334</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>172744</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>156525</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>16148; 42187</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>30259; 101768</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>23445; 48813</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>66677; 81552</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>46778; 82076</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>116465; 199720</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>145749; 161155</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>282.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>290.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>373.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>385.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>305.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>655.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>675.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>315086</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>779511</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>706286</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>357173</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>964805</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>809573</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>672259</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1744316</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1515859</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>271209; 358627</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>702016; 820569</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>669299; 727797</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>317550; 396610</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>934286; 985768</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>789871; 821545</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>610827; 734337</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1659009; 1789792</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1475406; 1540325</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>